--- a/dist/document/dest/2020/10/doctors/nhq.xlsx
+++ b/dist/document/dest/2020/10/doctors/nhq.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>126</v>
       </c>
-      <c r="C2" s="1">
-        <v>1940400</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1">
-        <v>132000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>28</v>
       </c>
-      <c r="C4" s="1">
-        <v>823760</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
-        <v>67650</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>502</v>
       </c>
-      <c r="C6" s="1">
-        <v>2816220</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
-        <v>107800</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>19</v>
       </c>
-      <c r="C8" s="1">
-        <v>6828600</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>98700</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -493,7 +469,7 @@
         <v>725</v>
       </c>
       <c r="C10" s="1">
-        <v>12815130</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/nhq.xlsx
+++ b/dist/document/dest/2020/10/doctors/nhq.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,79 +402,59 @@
         <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1078000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Eldosin (Erdosteine 300mg)</v>
+        <v>Medrol 16mg (Methylprednisolone)</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>22550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Losec (Omeprazole 20mg)</v>
+        <v>Mexams (Montelukast 5mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>28</v>
+        <v>280</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1570800</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
       </c>
       <c r="B5" s="1">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4312800</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Tổng cộng</v>
       </c>
       <c r="B6" s="1">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
-      </c>
-      <c r="B7" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Ventoline Inh 100mcg (Salbutamol)</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="B10" s="1">
-        <v>725</v>
-      </c>
-      <c r="C10" s="1">
-        <v>NaN</v>
+        <v>367</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6984150</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>